--- a/medicine/Enfance/Carolyn_Wells/Carolyn_Wells.xlsx
+++ b/medicine/Enfance/Carolyn_Wells/Carolyn_Wells.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carolyn Wells, née le 18 juin 1869 à Rahway, New Jersey et décédée le 26 mars 1942 à New York, est une auteure américaine de roman policier. Elle a également signé un roman sous le pseudonyme Rowland Wright.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atteinte de surdité, elle est contrainte de recevoir un enseignement spécialisé. Après ses études, elle devient brièvement bibliothécaire, puis se lance dans l'écriture de poèmes, de courtes pièces, des anthologies ou des contes destinés aux enfants.  Elle épouse peu après Hadwin Houghton, l'héritier d’un empire du monde de l’édition. Après la mort de son mari, en 1919, elle s'installe à New York et continue sa prolifique carrière d'écrivain dont les productions se sont entre-temps diversifiées.
 Outre de nombreux textes de littérature d'enfance et de jeunesse, dont les séries Patty, Dorrance et Marjorie, elle donne également de nombreux romans policiers, notamment la série de Fleming Stone, surnommé The Great Man, héros apparu d'abord dans une simple nouvelle en 1906, puis dans The Clue (1909), le tout premier roman policier de l'auteur.  Fleming Stone revient ensuite dans soixante titres. Carolyn Wells a également donné vie à d'autres enquêteurs, dont l'acteur du cinéma muet Kenneth Carlisle qui devient détective à l'heure du parlant, le détective privé et fin connaisseur en œuvres d'art Alan Ford, le privé et parapsychologue Pennington "Penny" Wise.  En 1913, elle signe The Technique of the Mystery Story, un essai sur le roman policier.
@@ -545,8 +559,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-Série Fleming Stone
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Fleming Stone</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Clue (1909)
 The Gold Bag (1911)
 A Chain of Evidence (1912)
@@ -608,27 +631,218 @@
 Murder at the Casino (1941)
 Murder Will In (1942)
 Who Killed Caldwell? (1942)
-Série Alan Ford
-The Bride of a Moment (1909)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Alan Ford</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Bride of a Moment (1909)
 Faulner’s Folly (1917)
 The Room With the Tassels (1918)
-Murder Will In (1942)
-Série Pennington "Penny" Wise
-The Man Who Fell Through the Earth (1919)
+Murder Will In (1942)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Pennington "Penny" Wise</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Man Who Fell Through the Earth (1919)
 In the Onyx Lobby (1920)
 The Come Back (1921)
 The Luminous Face (1921)
 The Vanishing of Betty Varian (1922)
-The Affair at Flower Acres (1923)
-Série Lorimer Lane
-More Lives Than One (1923)
-The Fourteenth Key (1924)
-Série Kenneth Carlisle
-Sleeping Dogs (1929)
+The Affair at Flower Acres (1923)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Lorimer Lane</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>More Lives Than One (1923)
+The Fourteenth Key (1924)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Kenneth Carlisle</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sleeping Dogs (1929)
 The Doorstep Murders (1931)
-The Skeleton at the Feast (1931)
-Autres romans policiers
-The Re Echo Club (1913)
+The Skeleton at the Feast (1931)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Re Echo Club (1913)
 The Moss Mystery (1924)
 Face Cards (1925)
 The Vanity Case (1926)
@@ -636,15 +850,129 @@
 The Sixth Commandment (1927)
 Deep-Lake Mystery (1928)
 Diversions of the Re Echo Club (1936)
-Ballade of Baker Street (1939)
-Romans non-policiers
-Abeniki Caldwell (1902)
+Ballade of Baker Street (1939)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Romans non-policiers</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Abeniki Caldwell (1902)
 The Gordon Elopement (1904), en collaboration avec Harry Persons Taber
-Ptomaine Street (1921), parodie de Sinclair Lewis
-Roman policier signé Rowland Wright
-The Disappearance of Kimball Webb (1918)
-Littérature d'enfance et de jeunesse
-Série Patty
+Ptomaine Street (1921), parodie de Sinclair Lewis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Roman policier signé Rowland Wright</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Disappearance of Kimball Webb (1918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Patty</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Patty at Home (1904)
 Patty in the City (1905)
 Patty's Summer Days (1906)
@@ -661,22 +989,171 @@
 Patty and Azalea (1919)
 Patty's Motor Car (1923)
 Patty's Social Season (1925)
-Série Dorrance
-The Dorrance Domain (1905)
-Dorrance Doings (1906)
-Série Marjorie
-Marjorie's Vacation (1907)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Dorrance</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The Dorrance Domain (1905)
+Dorrance Doings (1906)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Série Marjorie</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Marjorie's Vacation (1907)
 Marjorie's Busy Days (1908)
 Marjorie's New Friend (1909)
 Marjorie in Command (1910)
 Marjorie's Maytime (1911)
-Marjorie at Seacote (1912)
-Série Two Little Women
-Two Little Women (1915)
+Marjorie at Seacote (1912)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Série Two Little Women</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Two Little Women (1915)
 Two Little Women and the Treasure House (1916)
-Two Little Women on a Holiday (1917)
-Autres ouvrages de littérature d'enfance et de jeunesse
-At the Sign of the Sphinx (1896)
+Two Little Women on a Holiday (1917)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>At the Sign of the Sphinx (1896)
 The Jingle Book (1899)
 The Story of Betty (1899)
 Idle Idyls (1900)
@@ -687,9 +1164,43 @@
 Rainy Day Diversion (1907)
 The Emily Emmins Papers (1907)
 Pleasant Day Diversions (1908)
-Dick and Dolly's Adventures (1910)
-Autres publications
-Merry Christmas A B C (1900)
+Dick and Dolly's Adventures (1910)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Merry Christmas A B C (1900)
 The Rubaiyat of a Motor Car (1906)
 The Rubaiyat of Bridge (1909)
 The Technique of the Mystery Story (1913), essai sur le roman policier
@@ -700,16 +1211,121 @@
 The Honeymooner's Own Book: or Guyed to a Happy (1914)
 Married Life (1914)
 Waht a Lark! (1931)
-All for Fun: Brain Teasers (1933)
-Théâtre
-The Meaning of Thanksgiving Day (1922)
+All for Fun: Brain Teasers (1933)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>The Meaning of Thanksgiving Day (1922)
 Queen Christmas (1922)
-The Sweet Girl Graduate (1922)
-Autobiographie
-The Rest of My Life (1937)
-Nouvelles et courts textes
-Recueils de nouvelles et anthologies
-A Non Sense Anthology (1902)
+The Sweet Girl Graduate (1922)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>The Rest of My Life (1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Nouvelles et courts textes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles et anthologies</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A Non Sense Anthology (1902)
 The Pete and Polly Stories (1902)
 A Satire Anthology (1903)
 A Parody Anthology  (1904)
@@ -720,10 +1336,87 @@
 A Book of Charades (1927)
 American Detective stories (1927)
 Best American Stories of the Year (1932)
-Best American Stories of the Year (1933)
-Nouvelle de la série Fleming Stone
-The Maxwell Mystery (1906)
-Nouvelles isolées
+Best American Stories of the Year (1933)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nouvelles et courts textes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Nouvelle de la série Fleming Stone</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>The Maxwell Mystery (1906)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carolyn_Wells</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nouvelles et courts textes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Nouvelles isolées</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Or the Stairs (1900)
 First Lesson of Humor (1902)
 Tit-Tat-Top Club (1902)
